--- a/sputnik/personal/uch/uch275.xlsx
+++ b/sputnik/personal/uch/uch275.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -46,13 +43,19 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взноса на 51 к,д.</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №275</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +77,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -167,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -194,16 +205,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,7 +529,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -529,9 +544,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -540,11 +557,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>11867.31</v>
@@ -552,11 +569,11 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>43337</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
@@ -564,11 +581,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>43456</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -576,11 +593,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>43456</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>830</v>
@@ -588,11 +605,11 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>43456</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
@@ -600,45 +617,42 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>43586</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7">
         <v>11698.83</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>43791</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="16">
+        <v>11699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>43791</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7">
-        <v>11699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>43791</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="C10" s="9">
         <v>596.64</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch275.xlsx
+++ b/sputnik/personal/uch/uch275.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -178,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,6 +219,7 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,10 +527,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -651,6 +652,18 @@
         <v>596.64</v>
       </c>
       <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>43998</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9">
+        <v>596.64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch275.xlsx
+++ b/sputnik/personal/uch/uch275.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>Наименование / садовый участок №275</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,10 +315,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +349,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -523,17 +524,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -542,8 +543,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -557,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -569,7 +570,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="12">
         <v>43337</v>
       </c>
@@ -581,7 +582,7 @@
         <v>1867.31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="12">
         <v>43456</v>
       </c>
@@ -593,7 +594,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="12">
         <v>43456</v>
       </c>
@@ -605,7 +606,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="12">
         <v>43456</v>
       </c>
@@ -617,7 +618,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1">
       <c r="A8" s="13">
         <v>43586</v>
       </c>
@@ -629,7 +630,7 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1">
       <c r="A9" s="13">
         <v>43791</v>
       </c>
@@ -641,7 +642,7 @@
         <v>11699</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="14">
         <v>43791</v>
       </c>
@@ -653,7 +654,7 @@
       </c>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="18">
         <v>43998</v>
       </c>
@@ -664,6 +665,36 @@
       <c r="D11" s="9">
         <v>596.64</v>
       </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>13162.33</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -673,12 +704,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -687,12 +718,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch275.xlsx
+++ b/sputnik/personal/uch/uch275.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -57,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,9 +315,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,6 +350,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -524,17 +526,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -543,8 +545,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -558,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -570,7 +572,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43337</v>
       </c>
@@ -582,7 +584,7 @@
         <v>1867.31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43456</v>
       </c>
@@ -594,7 +596,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43456</v>
       </c>
@@ -606,7 +608,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43456</v>
       </c>
@@ -618,7 +620,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43586</v>
       </c>
@@ -630,7 +632,7 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43791</v>
       </c>
@@ -642,7 +644,7 @@
         <v>11699</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43791</v>
       </c>
@@ -654,7 +656,7 @@
       </c>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>43998</v>
       </c>
@@ -666,7 +668,7 @@
         <v>596.64</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>43952</v>
       </c>
@@ -678,19 +680,25 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>44098</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="8">
+        <v>13162.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -704,12 +712,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -718,12 +726,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch275.xlsx
+++ b/sputnik/personal/uch/uch275.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -693,9 +696,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14036.32</v>
+      </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch275.xlsx
+++ b/sputnik/personal/uch/uch275.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -536,7 +536,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -708,10 +708,16 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="18">
+        <v>44375</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8">
+        <v>14036.32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch275.xlsx
+++ b/sputnik/personal/uch/uch275.xlsx
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -226,6 +226,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,7 +537,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -660,13 +661,13 @@
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="19">
         <v>43998</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="9">
         <v>596.64</v>
       </c>
